--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishruthnair/Documents/GitHub/AutoML_PDLSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD0769A-4B26-0E44-9777-7FC9F074E2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463EEA9-3240-FD42-9F9B-C514F82677C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{83D19C90-D2EC-D246-BD55-AA3D0AA76090}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{83D19C90-D2EC-D246-BD55-AA3D0AA76090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Framework</t>
   </si>
@@ -54,13 +54,10 @@
     <t>h2O</t>
   </si>
   <si>
-    <t>spambase</t>
-  </si>
-  <si>
-    <t>Manual training</t>
-  </si>
-  <si>
     <t>Bank-Marketing</t>
+  </si>
+  <si>
+    <t>Spambase</t>
   </si>
 </sst>
 </file>
@@ -111,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,139 +423,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F7375-B529-FD41-A43E-BB64095C3F79}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>0.42681435010000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.65795899999999996</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>4493.6400000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>0.66439999999999999</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.66448969999999996</v>
+      </c>
+      <c r="E3" s="2">
         <v>2303.34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>0.65387700000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2548.4360000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.38349</v>
       </c>
       <c r="D5" s="1">
         <v>0.95916000000000001</v>
       </c>
+      <c r="E5" s="1">
+        <v>3627.52</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.123033</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.95482</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1716.76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.13600499999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.96350899999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2128.8240000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0.78700000000000003</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3608.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.9920072216264108E-16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6585.9110000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.9920072216264108E-16</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.39445000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.64734000000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>6585.9110000000001</v>
+        <v>2644.8243000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishruthnair/Documents/GitHub/AutoML_PDLSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463EEA9-3240-FD42-9F9B-C514F82677C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A90070E-15C0-8041-977F-F2441DC13195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{83D19C90-D2EC-D246-BD55-AA3D0AA76090}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Framework</t>
   </si>
@@ -48,23 +48,32 @@
     <t>Auto-sklearn</t>
   </si>
   <si>
-    <t>tpot</t>
-  </si>
-  <si>
-    <t>h2O</t>
-  </si>
-  <si>
     <t>Bank-Marketing</t>
   </si>
   <si>
     <t>Spambase</t>
+  </si>
+  <si>
+    <t>TPOT</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,26 +82,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -100,15 +137,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,180 +618,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F7375-B529-FD41-A43E-BB64095C3F79}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="14" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="12">
+        <v>4898</v>
+      </c>
+      <c r="D3" s="12">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.42681435010000002</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.65795899999999996</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4493.6400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="12">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.6522</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3602.58</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.2576</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1908.73</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2645.52</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4601</v>
+      </c>
+      <c r="D6" s="12">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3624.87</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1726.09</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.1089</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.96003000000000005</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3086.9</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>0.66448969999999996</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2303.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1">
-        <v>0.65387700000000004</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2548.4360000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="C9" s="5">
+        <v>45211</v>
+      </c>
+      <c r="D9" s="3">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.2102</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3601.19</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
+        <v>9.9920072216264108E-16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7903.79</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.38349</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.95916000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3627.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.123033</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.95482</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1716.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.13600499999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.96350899999999995</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2128.8240000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3608.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.9920072216264108E-16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6585.9110000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.39445000000000002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.64734000000000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2644.8243000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="G11" s="8">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3048.9</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishruthnair/Documents/GitHub/AutoML_PDLSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A90070E-15C0-8041-977F-F2441DC13195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6EFE64-D5B9-D648-A282-3821E5530955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{83D19C90-D2EC-D246-BD55-AA3D0AA76090}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Framework</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Classes</t>
+  </si>
+  <si>
+    <t>Google table</t>
+  </si>
+  <si>
+    <t>~7200</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -262,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F7375-B529-FD41-A43E-BB64095C3F79}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,21 +769,21 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>0.32150000000000001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="1">
         <v>0.65880000000000005</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>2645.52</v>
       </c>
       <c r="J5" s="14"/>
@@ -774,30 +795,22 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12">
-        <v>4601</v>
-      </c>
-      <c r="D6" s="12">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3624.87</v>
+    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -809,21 +822,29 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.123</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1726.09</v>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4601</v>
+      </c>
+      <c r="D7" s="12">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3624.87</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -834,22 +855,22 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.1089</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.96003000000000005</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3086.9</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1726.09</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -861,29 +882,21 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45211</v>
-      </c>
-      <c r="D9" s="3">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>0.2102</v>
+        <v>0.1089</v>
       </c>
       <c r="H9" s="1">
-        <v>0.91810000000000003</v>
+        <v>0.96003000000000005</v>
       </c>
       <c r="I9" s="3">
-        <v>3601.19</v>
+        <v>3086.9</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -894,22 +907,22 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="11">
-        <v>9.9920072216264108E-16</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7903.79</v>
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3600</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -920,22 +933,30 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.19040000000000001</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3048.9</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45211</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.2102</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3601.19</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -946,16 +967,23 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>9.9920072216264108E-16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7903.79</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -966,14 +994,22 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3048.9</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -983,15 +1019,23 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1001,15 +1045,16 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+    <row r="15" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1028,7 +1073,9 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1037,7 +1084,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1049,8 +1096,13 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1062,8 +1114,13 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1075,8 +1132,13 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1089,7 +1151,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1102,7 +1164,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1115,7 +1177,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1128,6 +1190,45 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
